--- a/[2] Design/3조_변환규칙.xlsx
+++ b/[2] Design/3조_변환규칙.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\5462s\Desktop\Folder\TransCompiler_for_beginner\[2] 설계\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoil\Desktop\TransCompiler_for_beginner\[2] Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91D079D-0E70-46FE-A784-3BE50101C038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0305F39C-3C42-499B-BE5D-4C95F5F0599F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -907,11 +907,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M29"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -929,7 +927,10 @@
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
@@ -951,7 +952,7 @@
       <c r="L2" s="30"/>
       <c r="M2" s="30"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
@@ -971,7 +972,7 @@
       <c r="L3" s="12"/>
       <c r="M3" s="13"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" s="19"/>
       <c r="C4" s="9" t="s">
         <v>5</v>
@@ -991,7 +992,7 @@
       <c r="L4" s="16"/>
       <c r="M4" s="17"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="18" t="s">
         <v>0</v>
       </c>
@@ -1017,7 +1018,7 @@
       <c r="L5" s="12"/>
       <c r="M5" s="13"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="D6" s="4"/>
       <c r="H6" s="14"/>
@@ -1026,7 +1027,7 @@
       </c>
       <c r="M6" s="14"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
       <c r="C7" s="1" t="s">
         <v>9</v>
@@ -1054,7 +1055,7 @@
       </c>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="D8" s="4" t="s">
         <v>28</v>
@@ -1073,7 +1074,7 @@
       </c>
       <c r="M8" s="14"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="C9" s="1" t="s">
         <v>10</v>
@@ -1086,7 +1087,7 @@
       <c r="I9" s="4"/>
       <c r="M9" s="14"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="19"/>
       <c r="C10" s="16" t="s">
         <v>11</v>
@@ -1104,7 +1105,7 @@
       <c r="L10" s="16"/>
       <c r="M10" s="17"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" s="18" t="s">
         <v>1</v>
       </c>
@@ -1130,7 +1131,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="I12" s="4" t="s">
@@ -1141,7 +1142,7 @@
       </c>
       <c r="M12" s="14"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="6" t="s">
         <v>13</v>
@@ -1159,7 +1160,7 @@
       <c r="I13" s="4"/>
       <c r="M13" s="14"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
       <c r="D14" s="1" t="s">
@@ -1177,7 +1178,7 @@
       <c r="I14" s="4"/>
       <c r="M14" s="14"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="C15" s="6" t="s">
         <v>12</v>
@@ -1202,7 +1203,7 @@
       </c>
       <c r="M15" s="14"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="H16" s="14"/>
